--- a/results/escherichia_coli/Cra_Crp_Study/functional_composition_of_core_genes.xlsx
+++ b/results/escherichia_coli/Cra_Crp_Study/functional_composition_of_core_genes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,59 +454,59 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino Acid Metabolism</t>
+          <t>Accounts for genomic differences between BW25113 and MG1655 substrains</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.74766355140187</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="C2" t="n">
-        <v>10.79136690647482</v>
+        <v>3.597122302158273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Anaerobiosis</t>
+          <t>Accounts for malE plasmid overexpression</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.859813084112149</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.316546762589928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Carbon Metabolism</t>
+          <t>Acetate uptake and catabolism; aldehyde catabolism; acetate/ethanol detoxification at stationary phase</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.224299065420562</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C4" t="n">
-        <v>33.81294964028777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cofactor Metabolism</t>
+          <t>Allantoin/glycolate/glyoxylate/arabinose/fucose transport and catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.803738317757009</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.316546762589928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DNA Damage</t>
+          <t>Amino acid transport</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -519,24 +519,24 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Energy Metabolism</t>
+          <t>Amino sugar transport, biosynthesis and catabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.607476635514019</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7194244604316548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Extracellular Structures</t>
+          <t>Amplification of DLP12/IS3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.05607476635514</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -545,11 +545,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fatty Acid Metabolism</t>
+          <t>Anaerobic growth</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -558,98 +558,98 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fe-S Cluster Assembly</t>
+          <t>Anaerobic growth on nitrate; formate-to-nitrate electron transfer via formate dehydrogenase N and nitrate reductase A</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.7194244604316548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Heat Shock</t>
+          <t>Anaerobiosis; repression of aerobic growth genes during anaerobic growth</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1869158878504673</v>
+        <v>1.308411214953271</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.43884892086331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Membrane Homeostasis</t>
+          <t>Arginine transport and biosynthesis</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.299065420560748</v>
+        <v>1.495327102803738</v>
       </c>
       <c r="C12" t="n">
-        <v>7.194244604316547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Metal Homeostasis</t>
+          <t>Aromatic amino acid biosynthesis and transport</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.289719626168224</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="C13" t="n">
-        <v>2.877697841726619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Motility</t>
+          <t>Biofilm formation, acid resistance, cold shock response</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1869158878504673</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7194244604316548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Biotin biosynthesis</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.551401869158878</v>
+        <v>0.9345794392523363</v>
       </c>
       <c r="C15" t="n">
-        <v>5.035971223021583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide Metabolism</t>
+          <t>Branched-chain amino acid biosynthesis</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.177570093457944</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7194244604316548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Phage Shock</t>
+          <t>CP4-44 prophage expression variation</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -662,11 +662,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Phosphate Metabolism</t>
+          <t>Carbohydrate transport and catabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7476635514018691</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Prophage</t>
+          <t>Cellular membrane synthesis and stress response, 3-hydroxypropanoate tolerance</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -688,59 +688,59 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Quorum Sensing</t>
+          <t>Cellulose biosynthesis; biofilm formation; membrane/periplasmic proteins</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.121495327102804</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.7194244604316548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Redox Stress</t>
+          <t>Central carbon metabolism; glycolytic flux-dependent regulation via fructose sensing</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.925233644859814</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.597122302158274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Strain Difference</t>
+          <t>Colanic acid capsule synthesis and transport; periplasmic proteins; envelope stress response</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7476635514018692</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.597122302158273</v>
+        <v>0.7194244604316548</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Stringent Response</t>
+          <t>Cold shock proteins</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.429906542056075</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.597122302158273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Toxin/Antitoxin</t>
+          <t>Copper/silver sensing and export</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -753,7 +753,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Curli secretion and assembly</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -766,14 +766,1652 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Cysteine biosynthesis, sulfate assimilation</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.364485981308411</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.158273381294964</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Cysteine transport and biosynthesis; aliphatic sulfonate utilization and homeostatic response to sulfate starvation</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.158273381294964</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Cytochrome c-552 and putative cytochrome c-related proteins</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DNA repair; stringent response signaling via ppGpp; ribosomal biogenesis and stability</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.429906542056075</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Deletions from minicoli strain</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.485981308411215</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.474820143884892</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Dihydroxyacetone transport and catabolism; phosphotransferase activity for DhaM phosphorylation</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Dipeptide transport; flagellar biosynthesis</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9345794392523363</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Electron transfer via nitrate reductases (periplasmic and A), cytochrome c</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid degradation and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ferric citrate transporter; iron uptake under intracellular limitation</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Flagellar biosynthesis</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Flagellum biosynthesis and export</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Formate dehydrogenase O; formate to carbon dioxide oxidation; formate-nitrate electron transport during aerobic/anerobic shift</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Formate hydrogenlyase: hydrogen production during glucose fermentation via formate oxidation/proton reduction</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Fucose/galacturonate/glucuronate transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.877697841726619</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Galactose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Global heat shock response during log-phase; response to high temperature and/or misfolded proteins</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Global regulation of amino acid biosynthesis/catabolism, stationary phase, nutrient transport, pili synthesis, 1-carbon metabolism</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Gluconate transport and catabolism (Entner-Doudoroff)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Glutamate-dependent acid resistance system; multidrug efflux</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Glutamate-dependent acid response, drug resistance, alkali metals response</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Glutamine transport and synthesis</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Glutarate/aminobutyrate transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Glycerol/glycerol-3-phosphate transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Glycine cleavage system</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate/glyoxylate tranport and catabolism</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Glyxoylate cycle; alternate to TCA cycle</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Heat shock response; response to high temperature and/or misfolded membrane/periplasmic proteins</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Histidine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.495327102803738</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogenase 1 and cytochrome bd-II ubiquinol oxidase: microaerobic respiratory chain between hydrogen and oxygen</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>IS1 transcripts</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>IS5 transcripts</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.308411214953271</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.597122302158273</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Inner membrane damage sensing and repair via protein folding/degradation, chemotaxis, drug efflux, DNA repair, motility</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic phosphate sensing, transport, and production</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Iron sensing and uptake, enterobactin biosynthesis, iron-sulfur cluster activation, iron sequestration</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.682242990654206</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Iron-sulfur cluster biogenesis and insertion</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Iron-sulfur cluster biosynthesis and insertion</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Isoleucine and valine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Leucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7476635514018692</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Lipid A modification and polymixin resistance in the presence of excess iron</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis and export</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.495327102803738</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Lysine transport and biosynthesis; type II secretion system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.05607476635514</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Magnesium sensing and transport; magnesium-limitation response</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Maltose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Master regulator of global stress response</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9345794392523363</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Membrane-related stress response regulators, transporters, multidrug resistance</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Methionine transport and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.308411214953271</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Miscellaneous carbon source metabolism</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Molybdenum transport and molybdoenzyme synthesis</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Multidrug resistance; stress response to harmful compounds/antibiotics</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Multidrug/spermidine efflux pump</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>N-acetyl-neuraminic acid (or sialic acid) transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.597122302158273</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>NADH:ubiquinone oxidoreductase I: electron transfer from NADH to quinone pool, proton electrochemical gradient generation for aerobic and anaerobic respiration</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.682242990654206</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>NDH-1 (nuoB) KO and compensatory NDH-2 (ndh) up-regulation</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Nickel and cobalt resistance via efflux</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Nickel sensing and uptake</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9345794392523363</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Nitrate reduction under microaerobic condition; aerobic to anaerobic transition</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Nitrate/nitrite transport and reduction</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Nitric oxide sensing and detoxification, iron-sulfur cluster repair, anaerobic growth</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Nitrogen assimilation, ammonium transport</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.495327102803738</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Nitrogen assimilation, pyrimidine transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism under nitrogen limitation</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Nucleoside degradation activated by ethanol treatment</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress response, especially peroxide</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Phage shock response; response to filamentous phage infection and/or extracytoplasmic shock</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Phenylacetic acid transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Plant-derived sugars transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.877697841726619</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Potassium sensing and transport</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Propionate catabolism; 2-methylcitric acid cycle</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Purine transport and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.869158878504673</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Putative heat responsive regulon</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Putative oxidoreductase components</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Putrescine transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Pyrimidine transport and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Pyruvate sensing and transport</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Pyruvate sensing, transport, and catabolism under nutrient limitation</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Quorum sensing via autoinducer 2, biofilm architecture, foreign DNA stress response; lsrR KO</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Regulatory changes under high temperature</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Rhamnose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Ribonucleoside reduction</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Ribose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Ribosome biogenesis</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>SOS response to DNA damage or inhibition of DNA replication</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Salicylic acid efflux</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Short-chain fatty acid (acetoacetate) transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Sigma 28; flagellum biosynthesis and export, motility</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Sorbitol transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Stringent response</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4.485981308411215</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Sulfoquinovose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Superoxide/nitric oxide sensing and removal, protection from organic solvents and antibiotics</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.495327102803738</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Tartrate transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Thiamine uptake and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.308411214953271</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Threonine/serine transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.869158878504673</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.316546762589928</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Threonine/serine transport and catabolism during anaerobiosis</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7476635514018692</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Tolerance to high zinc concentration</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Transition from aerobic to anaerobic growth; anaerobic reductase and hydrogenase activity</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.158273381294964</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Transition from aerobic to anaerobic growth; global control of anaerobiosis</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.308411214953271</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.158273381294964</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Transport and catabolism of carbohydrate diacids (galacatarate and glucarate)</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.597122302158273</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Transport and utilization of ribonucleosides and deoxyribonucleosides</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Transport of osmoprotectant glycine betaine</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Tryptophan import and catabolism via tryptophanase; indole/pyruvate biosynthesis</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Tryptophan transport and biosynthesis</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9345794392523363</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>Type 1 (mannose-sensitive) pili/fimbriae biosynthesis and secretion</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>9.532710280373831</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11.51079136690648</v>
+      <c r="B129" t="n">
+        <v>22.61682242990654</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.2158273381295</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Very low pH-responsive acid shock polypeptide</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Zinc sensing and uptake; copper sensing and export</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>arcA KO</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>baeR KO</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>crp KO and associated glycerol-3-phosphate (GlpR) regulatory changes</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.121495327102804</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>crp KO and compensatory regulatory changes</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>cydB/appC KO and compensatory regulatory changes</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.308411214953271</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>cyoB/kdpE/qseF KO</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7476635514018692</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>cyoB/ndh/nuoB KOs</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.3738317757009346</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>d-Xylose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.43884892086331</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>e14 prophage regulator activated by DNA damage</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>efeU re-activation and associated efeU ALE-related expression changes</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>entC/ubiC KO and compensatory sad up-regulation</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>glrR (aka qseF) KO; xylose transport and catabolism</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>lsrB KO and compensatory regulatory changes</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>pgi KO</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>ptsHI/crr KO and compensatory regulatory changes</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.7194244604316548</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>ptsHIcrr KO and associated adaptive regulatory changes</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1.869158878504673</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.877697841726619</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>rcsB KO and associated regulatory changes</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>sdh KO</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>thrA KO and compensatory transcriptional changes</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>tpiA KO and compensatory evolved regulatory changes</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5607476635514018</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>ubiC KO and associated adaptive regulatory changes</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4.299065420560748</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.43884892086331</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +2425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,7 +2457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.495327102803738</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -832,10 +2470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.233644859813085</v>
+        <v>2.5</v>
       </c>
       <c r="C3" t="n">
-        <v>38.1294964028777</v>
+        <v>12.44769874476988</v>
       </c>
     </row>
     <row r="4">
@@ -845,7 +2483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -858,10 +2496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.551401869158879</v>
+        <v>3.194444444444444</v>
       </c>
       <c r="C5" t="n">
-        <v>3.597122302158273</v>
+        <v>0.8368200836820083</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +2509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3738317757009346</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -884,10 +2522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.794392523364486</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="C7" t="n">
-        <v>3.597122302158273</v>
+        <v>2.928870292887029</v>
       </c>
     </row>
     <row r="8">
@@ -897,7 +2535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.869158878504673</v>
+        <v>1.805555555555555</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -910,10 +2548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.85981308411215</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="C9" t="n">
-        <v>9.352517985611511</v>
+        <v>4.184100418410042</v>
       </c>
     </row>
     <row r="10">
@@ -923,98 +2561,98 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.242990654205607</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="C10" t="n">
-        <v>5.035971223021583</v>
+        <v>0.4184100418410042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7476635514018692</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7194244604316548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7476635514018692</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2092050209205021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.242990654205607</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C13" t="n">
-        <v>1.43884892086331</v>
+        <v>0.104602510460251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.869158878504673</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>1.43884892086331</v>
+        <v>12.44769874476988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.364485981308411</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7194244604316548</v>
+        <v>0.4184100418410042</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3738317757009346</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.104602510460251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.495327102803738</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1023,274 +2661,300 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.728971962616822</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="C18" t="n">
-        <v>2.877697841726619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.542056074766355</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="C19" t="n">
-        <v>1.43884892086331</v>
+        <v>3.03347280334728</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.682242990654206</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C20" t="n">
-        <v>1.43884892086331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.682242990654206</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.673640167364017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1869158878504673</v>
+        <v>4.861111111111112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7194244604316548</v>
+        <v>0.2092050209205021</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.869158878504673</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="C23" t="n">
-        <v>2.877697841726619</v>
+        <v>0.3138075313807531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1869158878504673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>7.194244604316546</v>
+        <v>0.4184100418410042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.527777777777778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7194244604316548</v>
+        <v>0.104602510460251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.925233644859813</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26" t="n">
-        <v>7.913669064748201</v>
+        <v>3.138075313807531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.289719626168225</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7194244604316548</v>
+        <v>1.150627615062761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.869158878504673</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.97489539748954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.738317757009345</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.615062761506276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.803738317757009</v>
+        <v>1.25</v>
       </c>
       <c r="C30" t="n">
-        <v>2.158273381294964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.990654205607477</v>
+        <v>3.194444444444444</v>
       </c>
       <c r="C31" t="n">
-        <v>4.316546762589928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.738317757009345</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C32" t="n">
-        <v>18.70503597122302</v>
+        <v>0.2092050209205021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.121495327102804</v>
+        <v>1.805555555555555</v>
       </c>
       <c r="C33" t="n">
-        <v>2.158273381294964</v>
+        <v>0.4184100418410042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.308411214953271</v>
+        <v>6.388888888888888</v>
       </c>
       <c r="C34" t="n">
-        <v>1.43884892086331</v>
+        <v>18.09623430962343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.112149532710281</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7194244604316548</v>
+        <v>2.719665271966528</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.495327102803738</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="C36" t="n">
-        <v>2.158273381294964</v>
+        <v>24.89539748953975</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.616822429906542</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.3138075313807531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
+          <t>Unassigned</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.150627615062761</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
           <t>tRNA Charging</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.464435146443515</v>
       </c>
     </row>
   </sheetData>
